--- a/data/MoCA/moca_df_normalized.xlsx
+++ b/data/MoCA/moca_df_normalized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,85 +451,95 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MoCA_ratio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MoCA_diff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AGE_AT_OP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MAD_L</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MAD_R</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>alpha_L</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>alpha_R</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>beta_L</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>beta_R</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>theta_L</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>theta_R</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>X_L</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Y_L</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Z_L</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>X_R</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Y_R</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Z_R</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LEDD_ratio</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Pat_ID</t>
         </is>
@@ -540,60 +550,66 @@
         <v>0.1181785880145217</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C2" t="n">
         <v>-0.4870341394230769</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.009529184264024</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>-0.5441477120496214</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>-0.02799949761344779</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>2.587064290902964</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>3.148344736752159</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>-0.5353991525018006</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>-0.3272931469390747</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>-0.256501498878636</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.1016413160810132</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.9827118537363212</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>-0.952371853692076</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>-1.160569640800394</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>-0.9236603582066747</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>-0.4980919349512901</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>-1.33857418175237</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1.474305529080377</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -602,60 +618,66 @@
         <v>-0.4018849270134831</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C3" t="n">
         <v>-0.4870341394230769</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.5344520770264456</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.4734131621466064</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>-0.5613677540974369</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1.362565224980742</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>1.399704782632438</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>-0.4923722868907989</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>-0.6650115768098276</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.812099719227112</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>1.563454977587313</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>-0.6884850246974304</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>-0.1429289616405086</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>1.474437323738906</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>1.029620745354308</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>-1.100933905554914</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>-0.2734315214309518</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>-0.1370157424213206</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -664,60 +686,66 @@
         <v>-0.1166888058690936</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.6603954667789037</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.1014565266193199</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.1392051530802181</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>-0.564819223148408</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>-0.1595797218907684</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-0.6751445460232772</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.9953098019150549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.9422139606079643</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.8700828222783591</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.3609224917444914</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.3692780052725394</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.30852623534778</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>-0.3206927726429977</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>0.2639700216493391</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>0.3179343213411973</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>-0.1867952006011722</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -726,60 +754,66 @@
         <v>-0.7541860178389057</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C5" t="n">
         <v>-0.1857409259259259</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.07407407407407407</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.2010395288747737</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>-0.3146387926118501</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>-0.5638787768543374</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>-1.208351520114898</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.9826412928842188</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2.237432835194889</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.4429927865871258</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.426183256901006</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.3529302882293337</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>-0.579002939818105</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>-0.7530267470755204</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.2402210136111111</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>-0.317325407261458</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>-0.2032215356875443</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.8048839055328798</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>3.730573558217567</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>12</v>
       </c>
     </row>
@@ -788,60 +822,66 @@
         <v>3.471030466006128</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C6" t="n">
         <v>-0.04250004237288136</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01694915254237288</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="n">
         <v>-1.6742271850856</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>-0.426593012834821</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.8292636573096233</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>-0.751436195578578</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>-0.2839248752618115</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>-0.4062877354281484</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1.133463160788614</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.987914914242613</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.2975479561267437</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.402681060229988</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.216985404919467</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0.4567775125911187</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>0.1810446692063749</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>0.1793243330204854</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>0.04786475604030947</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>-0.470805456011658</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,60 +890,66 @@
         <v>-1.746380926694178</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>-0.09998109898625049</v>
       </c>
       <c r="C7" t="n">
         <v>0.08955366071428572</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.2282276765781292</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>-1.287121879858904</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>-1.004817206832372</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>-1.238830867683188</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.05759844148664702</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-1.436928424512589</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>-0.9752580583349409</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.733282815551874</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.682766082389155</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>-1.837258517540579</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.520681317758924</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>1.849103296172743</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>-0.1068650709152443</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>-0.8134185481742311</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>1.095006806666159</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>-0.2553702091511253</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -912,60 +958,66 @@
         <v>1.563332042216765</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C8" t="n">
         <v>-0.04559095454545455</v>
       </c>
       <c r="D8" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.3266251798416611</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.1147552235787791</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0.9619114418180202</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>-0.2093648188048433</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>-0.8070900070153524</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-0.7326301403896467</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>-0.8163717917969361</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.2714744393313376</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-1.154825740803878</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-0.2106744373683719</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-0.1814126116497464</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-0.7268638848795773</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>-1.031314011591772</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>-0.8685813779684699</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>-0.2637186465448963</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>-0.450397533467192</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -974,60 +1026,66 @@
         <v>1.107976890809756</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C9" t="n">
         <v>-0.2279547727272727</v>
       </c>
       <c r="D9" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.8861093032422128</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>-1.504767964020111</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-1.421524103717806</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2333352076295255</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>1.7103184403384</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>-1.315019819591079</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>-0.5669918312304177</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.951892841083237</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.7742994962857735</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.7406771105515868</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-0.08619916884221206</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.5041764557461772</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>1.382887986290352</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.2036670190788199</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>-1.125592065560864</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>-0.5442925298285943</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1036,60 +1094,66 @@
         <v>0.3362697394778786</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>-1.445181339892162</v>
       </c>
       <c r="C10" t="n">
         <v>0.2458335784313726</v>
       </c>
       <c r="D10" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
         <v>-1.526481066644998</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>-1.2449051372728</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>-0.6992832995979826</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>1.034577862353701</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.2621553709423359</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>-0.2945060436501237</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>-0.9717290464733467</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.407574751462443</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.1418772949993586</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.2331246552889038</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-0.4120572438965196</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>0.6041429371344443</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>0.07650328031585607</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>-0.8556055759600526</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>0.3393147418312285</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>-0.3736376593854691</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1098,60 +1162,66 @@
         <v>1.879684042141635</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>-2.117781460345117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>-0.912601310606081</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.5501793347419001</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>-0.1881660145829083</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>-0.7589698598430158</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>-0.1052060800102594</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>-0.7353611977287173</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>-0.06325305154739687</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1191051909388105</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.1215131557817615</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-0.4096247163266231</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>0.06594415505531943</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>1.109229263805656</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>1.153907140345671</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>-0.5271986835827634</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>1.937997073089288</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>5.687285171780972</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1160,60 +1230,66 @@
         <v>-0.3132105027921183</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>-1.108881279665684</v>
       </c>
       <c r="C12" t="n">
         <v>-0.3582146428571429</v>
       </c>
       <c r="D12" t="n">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F12" t="n">
         <v>-0.3012257260661579</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>-1.260100857931303</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>-0.5589860159761439</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>1.049315450101922</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>0.654636459246113</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>-0.3394531531288086</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>-0.1888144120665624</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.734118939637093</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>1.235452992813921</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>-3.249803054993032</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>0.05351962684774043</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>1.404323203637052</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>2.431745771608481</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>0.965833452825379</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>3.684794617589578</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>-0.1796281325647227</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1222,60 +1298,66 @@
         <v>1.596884527057282</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>-0.7725812194392062</v>
       </c>
       <c r="C13" t="n">
         <v>0.04916671568627452</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.1770710302415528</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>-0.2529093339285694</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>-0.3724641495111711</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>-0.3032338691603655</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>1.098375909540171</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>-0.3169795983894662</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>-0.7194128180408067</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.263987969104987</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.07973901451750429</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>-0.3072263359775266</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>-0.4953892552882329</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>-1.004625601097955</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>0.3592089103023701</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>0.03195181842246885</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>1.211816262135817</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>-0.7888289156629206</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1284,60 +1366,66 @@
         <v>-0.3323833512724134</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C14" t="n">
         <v>-0.1367728636363637</v>
       </c>
       <c r="D14" t="n">
+        <v>-0.05454545454545454</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.4310655679965814</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>-0.7327883176655309</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>-0.6837624595169155</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>1.379418140678045</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>0.07304334766181517</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>-1.494465215837659</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>-1.463144845765507</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.91133289559435</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>3.197874674815411</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.01158899801623204</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>-0.7739883795401715</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.7063973436433061</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>-1.103299099725316</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>-1.361849909389902</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>0.6056318671143627</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>-0.6435559904428096</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1346,60 +1434,66 @@
         <v>1.354827314993556</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>-0.7725812194392062</v>
       </c>
       <c r="C15" t="n">
         <v>0.1419341037735849</v>
       </c>
       <c r="D15" t="n">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.550787966832135</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>-1.317997991528093</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>-0.1881660145829083</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>1.020517852876596</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>-0.1052060800102594</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>0.1796243334983633</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>-0.06325305154739687</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.06294847178823894</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.1215131557817615</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>0.8144495542572101</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>2.665672274991414</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>1.582953987484938</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>-0.7200827177196459</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>1.569178991111486</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>0.6805090962271877</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>-0.5356274626200015</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1408,60 +1502,66 @@
         <v>0.3410629515979524</v>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>-1.108881279665684</v>
       </c>
       <c r="C16" t="n">
         <v>0.1003001</v>
       </c>
       <c r="D16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
         <v>-1.722521921137612</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.3321674527532465</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>0.7049192028919743</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>-1.283937041154155</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>-1.465772724787698</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>1.953533232705027</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1.043439111901767</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.226757868046578</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.7744408037355832</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-0.3348333832642909</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>-0.1545150284369311</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>-0.1464707673422005</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>1.009875739253463</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>-0.6997705817913288</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>-0.3341226922738644</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>-0.2502462671239981</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1470,60 +1570,66 @@
         <v>0.1397480425548535</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>-1.445181339892162</v>
       </c>
       <c r="C17" t="n">
         <v>0.2458335784313726</v>
       </c>
       <c r="D17" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
         <v>-1.339025943006075</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>-0.8611335702254613</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>1.394711013182808</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>-1.293828439231865</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>-1.072765032134061</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>1.119467587757532</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2.386987608455513</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.6923189366103387</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-1.817422784419896</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>-0.4012310039171306</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>2.607640953590075</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>0.9557175114739037</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>1.198550239443834</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>2.439475020849897</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>0.3526427722843518</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>-0.443304535997469</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1532,60 +1638,66 @@
         <v>0.0007448910727140853</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C18" t="n">
         <v>-0.04250004237288136</v>
       </c>
       <c r="D18" t="n">
+        <v>-0.01694915254237288</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.5537699714472506</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>-0.4615353228371966</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>-1.655122327784465</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>-0.5528345600486557</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>-0.8594269378358675</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>-0.7463023895517348</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>-1.365525756107816</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.6885954937399676</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.5319732562052857</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>0.5323142371049185</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>0.8818279864024526</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>0.1907419482325454</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>-0.6353118427227366</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>1.539777622820884</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>1.582494085021019</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>-0.2973381143836966</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1594,60 +1706,66 @@
         <v>-1.463581411609825</v>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C19" t="n">
         <v>0.08646560344827586</v>
       </c>
       <c r="D19" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
         <v>-1.386962940272517</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>-1.023865584650312</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>1.463125587031356</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>2.587064290902964</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>1.717703354550505</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>-0.07489209685488589</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>-0.2335676204849563</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.9914951130611117</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.6510972950628434</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>0.554875358574869</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>1.868926414250295</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>0.45569261059591</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>-0.7913382049184553</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>-0.1795161432944208</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>-1.467633822937732</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>-0.1886465522244043</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1656,60 +1774,66 @@
         <v>-0.6727014117976515</v>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C20" t="n">
         <v>-0.08646560344827586</v>
       </c>
       <c r="D20" t="n">
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.6510749211224175</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>-0.6176107515773177</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>-0.8301664293073895</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>-0.4552361809589518</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>-1.56949321665894</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>0.9281359656054359</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>2.386987608455513</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.5554852688445904</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-1.57943552538816</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>-1.195358222814903</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>1.416235229491516</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>1.137115240635874</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>0.1948457626508933</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>-0.03403462930726157</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>0.3686821755415451</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>-0.5575391268256387</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1718,60 +1842,66 @@
         <v>-0.7014606845180942</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>-0.4362811592127283</v>
       </c>
       <c r="C21" t="n">
         <v>0.09287046296296296</v>
       </c>
       <c r="D21" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
         <v>-0.5899209260215224</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>1.68501499519098</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>-1.558131638414298</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>-0.7306253474835313</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>-0.2725182035143252</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>1.039379616731995</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>-0.8235236810386226</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.6743970297941326</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.07374606510054277</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>0.1179901579809645</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>1.5106959572961</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>-0.5082381958355481</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>-0.5857197343764289</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>1.643191210586552</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>-0.3982525052013741</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>-0.1650000073186302</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1780,60 +1910,66 @@
         <v>1.946789011822667</v>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>-1.108881279665684</v>
       </c>
       <c r="C22" t="n">
         <v>-0.1671668333333333</v>
       </c>
       <c r="D22" t="n">
+        <v>-0.06666666666666667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.5902593275754396</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>-1.056703419391503</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>-0.1435317539253242</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>-0.4024419872369731</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>0.5809101500386065</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>1.402936327722429</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>2.073337087547167</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.7989594276834072</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-1.586904467571661</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>0.6541685498871194</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>-1.314093376841343</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>-0.6559732730440773</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>-0.8338078303779999</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>-1.439600244294476</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>0.171705136591544</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>-0.6565531840469323</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1842,60 +1978,66 @@
         <v>-0.5816303815162499</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C23" t="n">
         <v>0.04399127192982456</v>
       </c>
       <c r="D23" t="n">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>-0.2393369161624675</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>0.4122617686358792</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>-0.4010928906370074</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>-0.471608177040073</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>-0.04835450125118404</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>0.3251611052495331</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>-0.6129455023743712</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.09318860936013149</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.1121503211355123</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>-0.9917016502513343</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>-0.4192413682755419</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>-0.9137605033859881</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>-0.01579314355088302</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>-0.02479903013998083</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>-1.98563502196567</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>0.08549141574625554</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1904,60 +2046,66 @@
         <v>1.323671436213077</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>-0.7725812194392062</v>
       </c>
       <c r="C24" t="n">
         <v>-0.1044792708333333</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.04166666666666666</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F24" t="n">
         <v>-0.9068774900369536</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>-0.8673892632472117</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>-0.5352815036846855</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>-0.4936070706716743</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>-1.208894748061474</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>0.2942250605200725</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1.497921005686285</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.05088283971439473</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-1.410323737217813</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>-0.1031088324245454</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>-0.214331897735741</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>0.3402290582035638</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>1.441714841643128</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>-0.03813004942975684</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>1.367854749389084</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>-0.3249015065768412</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1966,60 +2114,66 @@
         <v>1.726301254299274</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>-0.7725812194392062</v>
       </c>
       <c r="C25" t="n">
         <v>-0.2180436956521739</v>
       </c>
       <c r="D25" t="n">
+        <v>-0.08695652173913043</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.7816689150872915</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>0.06211744144624419</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>-1.170428630278395</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>-0.08091192699670795</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>-0.1884042713615562</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>0.8451436297474489</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>-0.4393386646852406</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.9945491815540982</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.4988121760037083</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>0.5534925801621939</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>-2.119610725264433</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>0.5547447999208972</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>1.046534103293403</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>-0.2303014703138059</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>0.984388227821313</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>-0.4111760573270463</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2028,60 +2182,66 @@
         <v>1.076821012029277</v>
       </c>
       <c r="B26" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C26" t="n">
         <v>0.04250004237288136</v>
       </c>
       <c r="D26" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>-0.2393369161624675</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>-1.450824502628539</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>-1.114402784674264</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>0.1478527647579774</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>0.3451583356863694</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>-1.013975653815417</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>-1.321463862763546</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.279158560912976</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1.296121572181264</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>-1.293098823247622</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>-0.1204237966424075</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>0.3435034565124853</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>-0.01002780840322163</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>0.6718406440356316</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>-1.542364775468351</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>0.1335547622201595</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2090,60 +2250,66 @@
         <v>1.711921617939052</v>
       </c>
       <c r="B27" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C27" t="n">
         <v>-0.04399127192982456</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.01754385964912281</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="n">
         <v>-1.579784145694997</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>-0.342625103130684</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>-0.5668470238760189</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>0.06183456667475473</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>-0.3149878331057002</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>0.540205316459867</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.5297327117482878</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.31926844865313</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.6525962875361614</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>-1.898998358277042</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>1.016878053380468</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>1.723615314438923</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>2.286872529170888</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>1.280449637754107</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>0.7985214233447103</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>-0.7815096185478168</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2152,60 +2318,66 @@
         <v>0.1349548304347797</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C28" t="n">
         <v>-0.04559095454545455</v>
       </c>
       <c r="D28" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.284750404698263</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>0.05452057911745209</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>0.1059747159421635</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>-0.5430274392520111</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>-0.666862138059106</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>0.7821401158751305</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>-0.9281628150946483</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.7146210063495897</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>1.607976789448566</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>-0.9374094031010672</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>0.9654648923330582</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>0.747076873686674</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>1.319239675959462</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>0.7560684366177747</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>1.039400068417752</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>-0.5870464581334879</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2214,60 +2386,66 @@
         <v>-0.1118955937490198</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>-0.09998109898625049</v>
       </c>
       <c r="C29" t="n">
         <v>-0.3134378125</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.00320998045430727</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>-0.8481437448246587</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>-1.021669811105152</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>0.0839382106536796</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>-0.2260769738011233</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>0.1101265345426515</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>-0.06325305154739687</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.4652391944123234</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.5118292300162313</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>-0.8913167844934013</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>1.459187514204183</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>1.277798438470748</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>-0.2489831962224878</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>0.8376216656658476</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>0.870249278516566</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>-0.1531124103444487</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2276,60 +2454,66 @@
         <v>-0.04479062406798662</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C30" t="n">
         <v>-0.1928848076923077</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.07692307692307693</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F30" t="n">
         <v>-0.3488049845470299</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>0.8451499258110601</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>0.5838206387874202</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>-0.3256309306883822</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>0.2586914190446095</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>-0.05878323025844541</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>0.8340137631942507</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.8207152358473132</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.594453268659842</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>0.8228432593889209</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>0.4361456086615086</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>-1.649338662972101</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>-0.5143928131129125</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>-1.073874863850435</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>-0.3811540553704739</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>-0.5907562773501419</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>33</v>
       </c>
     </row>
@@ -2338,60 +2522,66 @@
         <v>0.9881465878079121</v>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>-1.108881279665684</v>
       </c>
       <c r="C31" t="n">
         <v>0.05117352040816327</v>
       </c>
       <c r="D31" t="n">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.6768321136834916</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>1.533303704632512</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>1.904486281210484</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>-0.6731760175306906</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>-1.082598081065233</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>-0.6025245298759575</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>-0.1990788069001471</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.3348262274839369</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-1.836404783762176</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>-0.2271950005092711</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>-0.212121402324356</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>-0.459664668918371</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>-1.160189719983708</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>-1.808188243374159</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>-1.77422677394096</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>-0.2653961969942719</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>39</v>
       </c>
     </row>
@@ -2400,60 +2590,66 @@
         <v>0.235612284956329</v>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C32" t="n">
         <v>0.08646560344827586</v>
       </c>
       <c r="D32" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.779383050811661</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>1.651770870718943</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>-0.3693690402896535</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>-0.5237275795122732</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>-1.094198271425516</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>-0.7023714098312076</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>-1.497510944105136</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3475361557951119</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>1.488550492452753</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>-0.1799136800780398</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>0.477668691290604</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>-0.1208464679507413</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>0.2783538756297243</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>0.2960020739503115</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>-0.1275365605795103</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>0.02791315116873108</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2462,60 +2658,66 @@
         <v>-1.125659957144624</v>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C33" t="n">
         <v>-0.1857409259259259</v>
       </c>
       <c r="D33" t="n">
+        <v>-0.07407407407407407</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.3183778505418855</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>0.1927701329068331</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>-1.089464031465209</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>-0.3121827903954374</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>-0.1052060800102594</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>-1.054103384813761</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>-1.02711041868839</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.451217701250746</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.4864815257853178</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>-0.4865508627580326</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>1.173651997745579</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>0.7154899802796351</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>0.4052295679657072</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>1.083472368453349</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>0.8916836321836528</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>-0.2452979118953081</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2524,60 +2726,66 @@
         <v>0.01752113349297249</v>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>-0.4362811592127283</v>
       </c>
       <c r="C34" t="n">
         <v>-0.4870341394230769</v>
       </c>
       <c r="D34" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.792739480208322</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>-0.4287552559553485</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>0.3782307812804485</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>1.75551307383215</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>2.46936637618437</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>0.6847413198666087</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.686964538831101</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.7923737748372225</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.5250801454439459</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>-0.2495863095123638</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>-0.9739242211123351</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>-1.098751979839846</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>-1.98068910919483</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>-1.685827057285122</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>-2.075528551772981</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>0.2518524432499025</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>59</v>
       </c>
     </row>
@@ -2586,60 +2794,66 @@
         <v>1.10558028474972</v>
       </c>
       <c r="B35" t="n">
-        <v>26</v>
+        <v>-0.4362811592127283</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>-0.5115761319815906</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>-0.4067817677164498</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>0.1594327459724349</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>0.04066316842666987</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>-0.2997975266986238</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>0.7167644153441115</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.617009645101305</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.6346787251742197</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.6108764470864768</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>-1.070107609751083</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>-1.890118984604011</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>0.3081150194783909</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>1.149162216398957</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>-2.431653590116765</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>-0.1942183933849569</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>-0.3345096875896883</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2648,60 +2862,66 @@
         <v>-1.108883714724365</v>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.9154438836589912</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>-0.2955440750650917</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>-0.8882494951391707</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>1.399068793188222</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>1.304654308824024</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>-0.4595265567535501</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>-1.026904116430406</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.3975651363660865</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.9787454736467883</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>1.534569009674646</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>-1.030025170710668</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>-1.796826572322711</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>-0.2329371874215421</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>-1.186331814590053</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>-0.9303310822444414</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>-0.1595846372085508</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>37</v>
       </c>
     </row>
@@ -2710,60 +2930,66 @@
         <v>0.4872559212602023</v>
       </c>
       <c r="B37" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C37" t="n">
         <v>-0.04250004237288136</v>
       </c>
       <c r="D37" t="n">
+        <v>-0.01694915254237288</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F37" t="n">
         <v>-2.138929867541632</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>1.560688043917331</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>1.856762242630147</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>1.487013902478897</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>0.8102781155640204</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>0.137786181279489</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.1592807815333499</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.2929926206666811</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.1495358222580953</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>2.090186362228335</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>-0.3815961853942673</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>-1.254940995718771</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>-0.5466123773317325</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>-0.5600038492118052</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>-0.7551920769857541</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>-0.03713710194175445</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2772,60 +2998,66 @@
         <v>-0.5384914724355858</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>-0.09998109898625049</v>
       </c>
       <c r="C38" t="n">
         <v>-0.09644240384615387</v>
       </c>
       <c r="D38" t="n">
+        <v>-0.03846153846153846</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F38" t="n">
         <v>-0.2608012432966956</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>-1.224645955427864</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>-0.1881660145829083</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>0.1447952754273571</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>-0.1052060800102594</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>-0.6383694542126179</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>-0.06325305154739687</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.7264352810448761</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.1215131557817615</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>0.7741063827338214</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>-0.3976890008552827</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>-0.2876111144896759</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>-0.7065622329548544</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>-0.8212332844845828</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>-0.5135616377456741</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>-0.09128372434710522</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V38" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2834,60 +3066,66 @@
         <v>-0.2293292906908271</v>
       </c>
       <c r="B39" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C39" t="n">
         <v>0.04250004237288136</v>
       </c>
       <c r="D39" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.047091756748922</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>1.743476756136641</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>1.40093678960819</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>-0.8154140845810288</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>-0.7722061192454465</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>-0.9790667506487455</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.5351076506704191</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5124244405834339</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.321086728770975</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>0.8428571574671023</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>-0.7991995042943734</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>-0.8917190125650121</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>0.787400030977666</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>0.1539995793422215</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>0.6748036181958744</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>0.1312282590500906</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2896,60 +3134,66 @@
         <v>1.079217618089314</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C40" t="n">
         <v>-0.2365568396226415</v>
       </c>
       <c r="D40" t="n">
+        <v>-0.09433962264150944</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.26960528137375</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>1.012751185290369</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>0.7601712847133656</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>-0.006856415856999611</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>-0.522785690824159</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>-0.4109593392722773</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>-0.3188985903591399</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.8812148779420478</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>1.091813058627351</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>0.06500791143217922</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>0.6054203034397193</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>-0.5725909497746102</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>0.6179348196683494</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>0.5911858983833431</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
         <v>-0.2845466589204461</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>0.4007440304248283</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>41</v>
       </c>
     </row>
@@ -2958,60 +3202,66 @@
         <v>-0.9243450481015247</v>
       </c>
       <c r="B41" t="n">
-        <v>23</v>
+        <v>-1.445181339892162</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.330778613706299</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>0.4717940914921281</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>1.925416374228596</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>-1.240909284488606</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>-1.224552097369523</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>-0.5536729449615604</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.7986687618900895</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.9179447534764337</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.8103667918356499</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>0.5068420031872328</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>0.8106537226405901</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>0.05531703380465019</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>-0.9968444350498321</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>0.2396273355910046</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>-0.5635266420750314</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>-0.2298785926394894</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3020,60 +3270,66 @@
         <v>0.8922823454064366</v>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C42" t="n">
         <v>0.04250004237288136</v>
       </c>
       <c r="D42" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.310745241714354</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>0.6116158035357266</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>-0.7221304022444075</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>0.6139757611349337</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>-1.847235610812055</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>0.1864731948696076</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>-1.876093695757503</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.9567989234380129</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.4727891465360134</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>-0.4256600916336385</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>-1.127915983515824</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>0.3080100287510506</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>0.4385715898627421</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>-1.112426159672545</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>-1.058765588877571</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>-0.4341845727790884</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3082,60 +3338,66 @@
         <v>-0.2005700179703846</v>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>-0.09998109898625049</v>
       </c>
       <c r="C43" t="n">
         <v>-0.4870341394230769</v>
       </c>
       <c r="D43" t="n">
+        <v>-0.1942307692307693</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.4196179268583267</v>
       </c>
-      <c r="E43" t="n">
+      <c r="G43" t="n">
         <v>-0.6242060927017604</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>-0.1881660145829083</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>-0.2942849479252937</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>-0.1820361930713949</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>-1.177599334353438</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.3667226775637114</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>2.339916405716848</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.0460163224533029</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>-0.7035257747699913</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>0.123569583064923</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>0.2297372563994455</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>0.03367141052539224</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>0.07413884620828932</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
         <v>0.5256734806217849</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>-0.4158267357142714</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V43" t="n">
         <v>44</v>
       </c>
     </row>
@@ -3144,60 +3406,66 @@
         <v>0.8874891332863628</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C44" t="n">
         <v>-0.3009003</v>
       </c>
       <c r="D44" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F44" t="n">
         <v>-1.100056434245004</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>-0.2611388482511444</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>0.1200873181027245</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>1.46519709029321</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>-0.6347001931611573</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>1.15584427130127</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>-0.832455028490966</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.5016059559224116</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.857875059865771</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>0.7643298991894368</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>-0.9781356051575284</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>-0.9532435787863496</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>-0.778501402469561</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>-0.526446463176479</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
         <v>0.4471859989579889</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>0.1363302396862071</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3206,60 +3474,66 @@
         <v>0.7388995575640757</v>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C45" t="n">
         <v>-0.3441670098039216</v>
       </c>
       <c r="D45" t="n">
+        <v>-0.1372549019607843</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F45" t="n">
         <v>-1.32042352615641</v>
       </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
         <v>1.743476756136641</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>1.925416374228596</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>-0.3313394399937808</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>-0.4120011354588867</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>-0.1919947084284215</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>-0.9953102194732291</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.6241699193594966</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>1.714895057169739</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>-1.153680793845563</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>-0.03701556304517385</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>0.4290949618570419</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>0.12106984838262</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>-0.3903154625606659</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>-0.4081860158117473</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>-0.6090074589570119</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3268,60 +3542,66 @@
         <v>0.8107977393651822</v>
       </c>
       <c r="B46" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C46" t="n">
         <v>-0.08955366071428572</v>
       </c>
       <c r="D46" t="n">
+        <v>-0.03571428571428571</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.9276070023683857</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>1.743476756136641</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>1.041723309663068</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>-0.8195473313845969</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>0.5116464811782392</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>2.36211032966853</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1.847254062011217</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-1.69078470012055</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.9256448762005003</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>0.00030843728125744</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>-1.569367923089396</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>-0.8421961988627485</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>-0.9161348093368437</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>-1.568062777857939</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>-1.065249008860762</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>0.2333080448482956</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3330,60 +3610,66 @@
         <v>0.8898857393463997</v>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C47" t="n">
         <v>-0.2279547727272727</v>
       </c>
       <c r="D47" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.237051051886838</v>
       </c>
-      <c r="E47" t="n">
+      <c r="G47" t="n">
         <v>1.659114702454405</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>1.888855187142018</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>0.08644421831817509</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>-1.262111797950883</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>0.8460719917840664</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.04896361432570508</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.9206699807739597</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.2905357515452338</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>1.802126931244902</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>-1.064078288544027</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>-2.411901624604148</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>-0.1449775245517581</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>-0.4275712718620647</v>
       </c>
-      <c r="R47" t="n">
+      <c r="T47" t="n">
         <v>-1.466820736166479</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>-0.608726211240447</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V47" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3392,60 +3678,66 @@
         <v>0.1996631940557757</v>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C48" t="n">
         <v>-0.1319738157894737</v>
       </c>
       <c r="D48" t="n">
+        <v>-0.05263157894736842</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F48" t="n">
         <v>0.998081543125767</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>1.743476756136641</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>0.8568310062531105</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>2.587064290902964</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>1.05616653642358</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>0.2959101793098264</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>-0.9538441937943913</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.769147377151889</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.3999880953395892</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>0.9865933345740421</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>-1.754592513120266</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>-1.891151993797876</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
         <v>-0.9511503046850595</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>-1.714014429599027</v>
       </c>
-      <c r="R48" t="n">
+      <c r="T48" t="n">
         <v>-1.845286186219408</v>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>2.210866209139989</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V48" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3454,60 +3746,66 @@
         <v>0.01752113349297249</v>
       </c>
       <c r="B49" t="n">
-        <v>26</v>
+        <v>-0.4362811592127283</v>
       </c>
       <c r="C49" t="n">
         <v>-0.04916671568627452</v>
       </c>
       <c r="D49" t="n">
+        <v>-0.0196078431372549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F49" t="n">
         <v>1.556511787401263</v>
       </c>
-      <c r="E49" t="n">
+      <c r="G49" t="n">
         <v>-1.370823448035073</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>1.66964818299664</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>-1.12653446871538</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>-0.1755207980258204</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>-1.650753832192593</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.6603964318721948</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.6721541546851832</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.6602269954361991</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>1.214266584831428</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>0.2464237941687312</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>0.8784465212710556</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>0.6253583297140163</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>1.003277310959846</v>
       </c>
-      <c r="R49" t="n">
+      <c r="T49" t="n">
         <v>0.3290886829594593</v>
       </c>
-      <c r="S49" t="n">
+      <c r="U49" t="n">
         <v>-0.2115555281988547</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V49" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3516,60 +3814,66 @@
         <v>-0.01603135134754432</v>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C50" t="n">
         <v>0.04250004237288136</v>
       </c>
       <c r="D50" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.3140849851150395</v>
       </c>
-      <c r="E50" t="n">
+      <c r="G50" t="n">
         <v>1.531998468089455</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>-0.5153856047160572</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>0.5228726875559252</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>0.05023615505057091</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>0.09695843432952596</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.06924502964526839</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.6491432300400583</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.4368881592700987</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>-0.3562300597551473</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>-0.4855182309920953</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>0.3873436470974631</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>1.836793533515585</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>1.225788288230726</v>
       </c>
-      <c r="R50" t="n">
+      <c r="T50" t="n">
         <v>0.1230181867588671</v>
       </c>
-      <c r="S50" t="n">
+      <c r="U50" t="n">
         <v>0.4832649229421298</v>
       </c>
-      <c r="T50" t="n">
+      <c r="V50" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3578,60 +3882,66 @@
         <v>-0.5360948663755489</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>-3.799281761477507</v>
       </c>
       <c r="C51" t="n">
         <v>-0.08088717741935485</v>
       </c>
       <c r="D51" t="n">
+        <v>-0.03225806451612903</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.345088165129118</v>
       </c>
-      <c r="E51" t="n">
+      <c r="G51" t="n">
         <v>0.8996343874661807</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>1.925416374228596</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>-1.270960842892173</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>0.0125520734864007</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>-1.288083597724415</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.6243360218443607</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.5458119711200426</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.09301541028045326</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>-0.5877362771613118</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>-0.07830997334089736</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>0.01922647128146871</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>-0.1244672081369273</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>1.558520447944154</v>
       </c>
-      <c r="R51" t="n">
+      <c r="T51" t="n">
         <v>0.2620873353040891</v>
       </c>
-      <c r="S51" t="n">
+      <c r="U51" t="n">
         <v>0.1918397890071546</v>
       </c>
-      <c r="T51" t="n">
+      <c r="V51" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3640,60 +3950,66 @@
         <v>-0.09511935132876144</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C52" t="n">
         <v>-0.08646560344827586</v>
       </c>
       <c r="D52" t="n">
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F52" t="n">
         <v>0.9555106276428826</v>
       </c>
-      <c r="E52" t="n">
+      <c r="G52" t="n">
         <v>1.00677826707493</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>-1.991767232886384</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>-0.9467213970232586</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>0.9938150157147059</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>0.9929974102857138</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>-1.285925800165846</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.8193696522307518</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.1462304292714771</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>1.872008185552792</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>-0.2455266171187658</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>-1.777414226486184</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>-1.344394807940398</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>-0.6366467526972405</v>
       </c>
-      <c r="R52" t="n">
+      <c r="T52" t="n">
         <v>-2.038118538960964</v>
       </c>
-      <c r="S52" t="n">
+      <c r="U52" t="n">
         <v>-0.0631572031859487</v>
       </c>
-      <c r="T52" t="n">
+      <c r="V52" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3702,60 +4018,66 @@
         <v>0.2691647697968454</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>-0.7725812194392062</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.1795752017405457</v>
       </c>
-      <c r="E53" t="n">
+      <c r="G53" t="n">
         <v>-0.7246480358797016</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>-0.3077252203383316</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>-0.3612707677982474</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>-0.9832196391371265</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>-0.4521778604708138</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.03982953368283255</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.175491387305139</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.1641338865202337</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>1.12729710045533</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>-0.5048982112453256</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>0.4748074848922789</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>-2.011691830014413</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>-0.1672612191753596</v>
       </c>
-      <c r="R53" t="n">
+      <c r="T53" t="n">
         <v>0.4357129412934911</v>
       </c>
-      <c r="S53" t="n">
+      <c r="U53" t="n">
         <v>-0.6876396330466098</v>
       </c>
-      <c r="T53" t="n">
+      <c r="V53" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3764,60 +4086,66 @@
         <v>0.4537034364196859</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C54" t="n">
         <v>-0.2279547727272727</v>
       </c>
       <c r="D54" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F54" t="n">
         <v>1.013822049690868</v>
       </c>
-      <c r="E54" t="n">
+      <c r="G54" t="n">
         <v>-0.8172975456380825</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>-1.040555174961755</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>-0.770715405009568</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>0.2708651970370569</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>-1.331197947368902</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>-0.9412282368486055</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.894714781751112</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>1.37044860978676</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>0.2698289289748409</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>1.049654424974914</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>-0.3982275993444315</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>-0.8184506008596416</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>0.2139264717095979</v>
       </c>
-      <c r="R54" t="n">
+      <c r="T54" t="n">
         <v>0.2167344364166506</v>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>-0.2713180131395023</v>
       </c>
-      <c r="T54" t="n">
+      <c r="V54" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3826,60 +4154,66 @@
         <v>-0.7877385026794222</v>
       </c>
       <c r="B55" t="n">
-        <v>26</v>
+        <v>-0.4362811592127283</v>
       </c>
       <c r="C55" t="n">
         <v>-0.2089585416666667</v>
       </c>
       <c r="D55" t="n">
+        <v>-0.08333333333333333</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.671823770685504</v>
       </c>
-      <c r="E55" t="n">
+      <c r="G55" t="n">
         <v>0.2368851524726009</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>-0.05286824998099462</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>0.6008292095399229</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>2.599798953595434</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>1.377411354359845</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.9552272547021341</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.8376922734995338</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.7671112787713145</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>-0.8639280706402167</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>0.3493454040248672</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>0.2658409427635446</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>0.2376011014099574</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>1.411866723823867</v>
       </c>
-      <c r="R55" t="n">
+      <c r="T55" t="n">
         <v>0.05353427535157543</v>
       </c>
-      <c r="S55" t="n">
+      <c r="U55" t="n">
         <v>-0.6521576768045266</v>
       </c>
-      <c r="T55" t="n">
+      <c r="V55" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3888,60 +4222,66 @@
         <v>-0.9099654117413034</v>
       </c>
       <c r="B56" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C56" t="n">
         <v>-0.2279547727272727</v>
       </c>
       <c r="D56" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F56" t="n">
         <v>0.1327114208308154</v>
       </c>
-      <c r="E56" t="n">
+      <c r="G56" t="n">
         <v>0.3472567591860575</v>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>-0.5910650187573708</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>1.032830540072828</v>
       </c>
-      <c r="H56" t="n">
+      <c r="J56" t="n">
         <v>1.798975353809699</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>-1.196588254838662</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>-0.8474945557731083</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.5146434050071101</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>1.35130691010879</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>-0.4110560084282383</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>-0.3163769265027486</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>1.26032404428907</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>0.7608182552895787</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>-1.004921326607638</v>
       </c>
-      <c r="R56" t="n">
+      <c r="T56" t="n">
         <v>0.4761007175801027</v>
       </c>
-      <c r="S56" t="n">
+      <c r="U56" t="n">
         <v>0.9355415918412147</v>
       </c>
-      <c r="T56" t="n">
+      <c r="V56" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3950,60 +4290,66 @@
         <v>-0.9914500177825576</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C57" t="n">
         <v>-0.04559095454545455</v>
       </c>
       <c r="D57" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.1488290034131403</v>
       </c>
-      <c r="E57" t="n">
+      <c r="G57" t="n">
         <v>-0.3527518872062568</v>
       </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
         <v>-0.08759634858241844</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>-0.3353922818130936</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J57" t="n">
         <v>-0.3111140592686745</v>
       </c>
-      <c r="I57" t="n">
+      <c r="K57" t="n">
         <v>-0.6180032833933771</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>-0.7855363593074823</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.3659104757321555</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.06142960839417899</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>-0.2973528104996971</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>0.6896860582870969</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>0.3988685645425588</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>-0.4643670263709772</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>0.9313148920919074</v>
       </c>
-      <c r="R57" t="n">
+      <c r="T57" t="n">
         <v>0.119146436747435</v>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>-0.5575391268256387</v>
       </c>
-      <c r="T57" t="n">
+      <c r="V57" t="n">
         <v>64</v>
       </c>
     </row>
@@ -4012,60 +4358,66 @@
         <v>-1.192764926825656</v>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
         <v>1.076784075951271</v>
       </c>
-      <c r="E58" t="n">
+      <c r="G58" t="n">
         <v>0.9061748613678363</v>
       </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
         <v>1.538709415669554</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>-0.9558716916526899</v>
       </c>
-      <c r="H58" t="n">
+      <c r="J58" t="n">
         <v>-0.9052455102757354</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>1.075522265132886</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1.827286487871692</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-1.018897829105801</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-1.487513952565831</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>-0.9199427284146549</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>0.5480807158468304</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>0.02544498675686055</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
         <v>0.09356970031775003</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="S58" t="n">
         <v>1.21406618689945</v>
       </c>
-      <c r="R58" t="n">
+      <c r="T58" t="n">
         <v>0.5164280249692034</v>
       </c>
-      <c r="S58" t="n">
+      <c r="U58" t="n">
         <v>-0.5430835150233086</v>
       </c>
-      <c r="T58" t="n">
+      <c r="V58" t="n">
         <v>63</v>
       </c>
     </row>
@@ -4074,60 +4426,66 @@
         <v>0.8395570120856248</v>
       </c>
       <c r="B59" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
         <v>-2.293115284122502</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G59" t="n">
         <v>-0.6026104649135934</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>1.050323037379169</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
         <v>0.08280697089995001</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>-0.4438777867975345</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>-1.300893446913012</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2.386987608455513</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>1.271307092816407</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-1.512342090632607</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>-1.222480089545565</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>0.4332681503721875</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>-0.3793227065027431</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R59" t="n">
         <v>1.049773914404911</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="S59" t="n">
         <v>0.9065960958304301</v>
       </c>
-      <c r="R59" t="n">
+      <c r="T59" t="n">
         <v>0.8601065758214437</v>
       </c>
-      <c r="S59" t="n">
+      <c r="U59" t="n">
         <v>-0.5575391268256387</v>
       </c>
-      <c r="T59" t="n">
+      <c r="V59" t="n">
         <v>60</v>
       </c>
     </row>
@@ -4136,60 +4494,66 @@
         <v>-0.9578975329420412</v>
       </c>
       <c r="B60" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C60" t="n">
         <v>-0.04559095454545455</v>
       </c>
       <c r="D60" t="n">
+        <v>-0.01818181818181818</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F60" t="n">
         <v>0.8921908625969101</v>
       </c>
-      <c r="E60" t="n">
+      <c r="G60" t="n">
         <v>-0.4562591699920607</v>
       </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
         <v>-0.5426511918494485</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>2.587064290902965</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>0.8186589957636295</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>-1.217519714744111</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.09362630839019759</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.6075505190280034</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.2698966405152936</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>1.648000506200658</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>-1.682636950313782</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>-3.337044919203874</v>
       </c>
-      <c r="P60" t="n">
+      <c r="R60" t="n">
         <v>-0.5866508644761463</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>1.495165731064859</v>
       </c>
-      <c r="R60" t="n">
+      <c r="T60" t="n">
         <v>0.5620628472821582</v>
       </c>
-      <c r="S60" t="n">
+      <c r="U60" t="n">
         <v>-0.5177436778639299</v>
       </c>
-      <c r="T60" t="n">
+      <c r="V60" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4198,60 +4562,66 @@
         <v>-1.152022623805029</v>
       </c>
       <c r="B61" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
         <v>-0.07620802994233597</v>
       </c>
-      <c r="E61" t="n">
+      <c r="G61" t="n">
         <v>0.3833676386644933</v>
       </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
         <v>0.2238181560284371</v>
       </c>
-      <c r="G61" t="n">
+      <c r="I61" t="n">
         <v>-0.1130298173477537</v>
       </c>
-      <c r="H61" t="n">
+      <c r="J61" t="n">
         <v>0.5463545487999529</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>1.028696524989557</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.7607689819200911</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.8820794130012261</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.9268963411543176</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>0.9929977819590607</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>-1.069928492883985</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>-0.5571923075774123</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R61" t="n">
         <v>-1.360836221968169</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>-0.5803973844056475</v>
       </c>
-      <c r="R61" t="n">
+      <c r="T61" t="n">
         <v>-0.6396721147493288</v>
       </c>
-      <c r="S61" t="n">
+      <c r="U61" t="n">
         <v>-0.3055025125828443</v>
       </c>
-      <c r="T61" t="n">
+      <c r="V61" t="n">
         <v>69</v>
       </c>
     </row>
@@ -4260,60 +4630,66 @@
         <v>-1.022605896563037</v>
       </c>
       <c r="B62" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C62" t="n">
         <v>0.08646560344827586</v>
       </c>
       <c r="D62" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
         <v>-0.1116241697138116</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G62" t="n">
         <v>-2.284206946294815</v>
       </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
         <v>1.925416374228596</v>
       </c>
-      <c r="G62" t="n">
+      <c r="I62" t="n">
         <v>-0.7918974955970648</v>
       </c>
-      <c r="H62" t="n">
+      <c r="J62" t="n">
         <v>-1.183207956115453</v>
       </c>
-      <c r="I62" t="n">
+      <c r="K62" t="n">
         <v>-0.266916321632356</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.8055310519155854</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.6782182050920382</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-1.340853131966401</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>-0.3875002617238332</v>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>0.4609184428711452</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>0.6554112216787384</v>
       </c>
-      <c r="P62" t="n">
+      <c r="R62" t="n">
         <v>0.9941358545781122</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="S62" t="n">
         <v>0.2463346342137131</v>
       </c>
-      <c r="R62" t="n">
+      <c r="T62" t="n">
         <v>0.1222647549844523</v>
       </c>
-      <c r="S62" t="n">
+      <c r="U62" t="n">
         <v>0.1757546355107437</v>
       </c>
-      <c r="T62" t="n">
+      <c r="V62" t="n">
         <v>71</v>
       </c>
     </row>
@@ -4322,60 +4698,66 @@
         <v>-0.318003714912192</v>
       </c>
       <c r="B63" t="n">
-        <v>26</v>
+        <v>-0.4362811592127283</v>
       </c>
       <c r="C63" t="n">
         <v>-0.1003001</v>
       </c>
       <c r="D63" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F63" t="n">
         <v>-1.23563943397621</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G63" t="n">
         <v>-0.7150385717470628</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>0.5446897978122001</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
         <v>0.03640006081020132</v>
       </c>
-      <c r="H63" t="n">
+      <c r="J63" t="n">
         <v>-0.06607396262126937</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>-0.6195168703900581</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>-0.3566948431176751</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.3739196365762976</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.4341393904755309</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>-0.1630777488478976</v>
       </c>
-      <c r="N63" t="n">
+      <c r="P63" t="n">
         <v>1.35735210364837</v>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>1.365732549419083</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R63" t="n">
         <v>1.647914948023783</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>1.199899369247749</v>
       </c>
-      <c r="R63" t="n">
+      <c r="T63" t="n">
         <v>0.6954747340563545</v>
       </c>
-      <c r="S63" t="n">
+      <c r="U63" t="n">
         <v>0.4958075820230057</v>
       </c>
-      <c r="T63" t="n">
+      <c r="V63" t="n">
         <v>67</v>
       </c>
     </row>
@@ -4384,60 +4766,66 @@
         <v>-0.5528711087958071</v>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>-0.4362811592127283</v>
       </c>
       <c r="C64" t="n">
         <v>-0.04916671568627452</v>
       </c>
       <c r="D64" t="n">
+        <v>-0.0196078431372549</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F64" t="n">
         <v>-1.347611673859766</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G64" t="n">
         <v>1.467641850581456</v>
       </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
         <v>-0.8065471714366642</v>
       </c>
-      <c r="G64" t="n">
+      <c r="I64" t="n">
         <v>-1.018803671966178</v>
       </c>
-      <c r="H64" t="n">
+      <c r="J64" t="n">
         <v>-0.9449894311976624</v>
       </c>
-      <c r="I64" t="n">
+      <c r="K64" t="n">
         <v>-0.862126481239902</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>-0.4396703007053331</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.93324275238966</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.6409582784126304</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>-0.7118709662127595</v>
       </c>
-      <c r="N64" t="n">
+      <c r="P64" t="n">
         <v>0.1041133806061723</v>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>0.5596006210603797</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R64" t="n">
         <v>-0.3478612887895081</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="S64" t="n">
         <v>0.2045446095528194</v>
       </c>
-      <c r="R64" t="n">
+      <c r="T64" t="n">
         <v>0.3285362797479943</v>
       </c>
-      <c r="S64" t="n">
+      <c r="U64" t="n">
         <v>0.3571308955693592</v>
       </c>
-      <c r="T64" t="n">
+      <c r="V64" t="n">
         <v>73</v>
       </c>
     </row>
@@ -4446,60 +4834,66 @@
         <v>-0.8907925632610084</v>
       </c>
       <c r="B65" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C65" t="n">
         <v>-0.1857409259259259</v>
       </c>
       <c r="D65" t="n">
+        <v>-0.07407407407407407</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F65" t="n">
         <v>-0.02147399575005527</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G65" t="n">
         <v>1.743476756136641</v>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>-0.724422443660937</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I65" t="n">
         <v>0.3861668629497133</v>
       </c>
-      <c r="H65" t="n">
+      <c r="J65" t="n">
         <v>1.446266624357146</v>
       </c>
-      <c r="I65" t="n">
+      <c r="K65" t="n">
         <v>1.981042348809239</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1.452748346970686</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.6986280165830541</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.4877239296712831</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O65" t="n">
         <v>1.208007693068798</v>
       </c>
-      <c r="N65" t="n">
+      <c r="P65" t="n">
         <v>0.2957979640547851</v>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>-0.7574774289392073</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R65" t="n">
         <v>-0.3308969076117797</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="S65" t="n">
         <v>-0.76444064381006</v>
       </c>
-      <c r="R65" t="n">
+      <c r="T65" t="n">
         <v>-0.04469274911447211</v>
       </c>
-      <c r="S65" t="n">
+      <c r="U65" t="n">
         <v>-0.2267074496227266</v>
       </c>
-      <c r="T65" t="n">
+      <c r="V65" t="n">
         <v>80</v>
       </c>
     </row>
@@ -4508,60 +4902,66 @@
         <v>-0.4306441997339258</v>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>0.908919081693183</v>
       </c>
       <c r="C66" t="n">
         <v>-0.2279547727272727</v>
       </c>
       <c r="D66" t="n">
+        <v>-0.09090909090909091</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F66" t="n">
         <v>1.368698924976769</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G66" t="n">
         <v>0.01139350684039466</v>
       </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
         <v>-0.1881660145829083</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I66" t="n">
         <v>1.714396118623763</v>
       </c>
-      <c r="H66" t="n">
+      <c r="J66" t="n">
         <v>-0.1052060800102594</v>
       </c>
-      <c r="I66" t="n">
+      <c r="K66" t="n">
         <v>2.117049286134974</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>-0.06325305154739687</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-1.498388444273645</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.1215131557817615</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O66" t="n">
         <v>1.513675715470471</v>
       </c>
-      <c r="N66" t="n">
+      <c r="P66" t="n">
         <v>-0.5585314033404218</v>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>-0.4037166458081842</v>
       </c>
-      <c r="P66" t="n">
+      <c r="R66" t="n">
         <v>1.266407756501647</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="S66" t="n">
         <v>0.8287621767017096</v>
       </c>
-      <c r="R66" t="n">
+      <c r="T66" t="n">
         <v>0.3077589302377634</v>
       </c>
-      <c r="S66" t="n">
+      <c r="U66" t="n">
         <v>-0.4235784956948146</v>
       </c>
-      <c r="T66" t="n">
+      <c r="V66" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4570,60 +4970,66 @@
         <v>-0.9531043208219675</v>
       </c>
       <c r="B67" t="n">
-        <v>28</v>
+        <v>0.2363189612402274</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
         <v>-0.2142952011725351</v>
       </c>
-      <c r="E67" t="n">
+      <c r="G67" t="n">
         <v>-0.9792557628606737</v>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>-0.366125817088602</v>
       </c>
-      <c r="G67" t="n">
+      <c r="I67" t="n">
         <v>-0.5173284648861179</v>
       </c>
-      <c r="H67" t="n">
+      <c r="J67" t="n">
         <v>-0.08414129008150686</v>
       </c>
-      <c r="I67" t="n">
+      <c r="K67" t="n">
         <v>-0.1265606585197834</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.05965864718891049</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.05198257384336875</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.3132218499987264</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O67" t="n">
         <v>0.6216368682836761</v>
       </c>
-      <c r="N67" t="n">
+      <c r="P67" t="n">
         <v>-1.317923638425315</v>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>-1.4328171587139</v>
       </c>
-      <c r="P67" t="n">
+      <c r="R67" t="n">
         <v>-0.4272239683498801</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>-1.945322204531684</v>
       </c>
-      <c r="R67" t="n">
+      <c r="T67" t="n">
         <v>-1.546184225007088</v>
       </c>
-      <c r="S67" t="n">
+      <c r="U67" t="n">
         <v>2.807727300756813</v>
       </c>
-      <c r="T67" t="n">
+      <c r="V67" t="n">
         <v>70</v>
       </c>
     </row>
@@ -4632,60 +5038,66 @@
         <v>-0.921948442041488</v>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>-4.471881881930463</v>
       </c>
       <c r="C68" t="n">
         <v>0.1671668333333333</v>
       </c>
       <c r="D68" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
         <v>-0.7004622107627961</v>
       </c>
-      <c r="E68" t="n">
+      <c r="G68" t="n">
         <v>0.1558933143056204</v>
       </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
         <v>-0.01888351926185455</v>
       </c>
-      <c r="G68" t="n">
+      <c r="I68" t="n">
         <v>-1.164468938759962</v>
       </c>
-      <c r="H68" t="n">
+      <c r="J68" t="n">
         <v>-0.5932919989494921</v>
       </c>
-      <c r="I68" t="n">
+      <c r="K68" t="n">
         <v>-0.3643047377923843</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.483603527128478</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.04673686522072019</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.3762039921737264</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>-0.7793359971890299</v>
       </c>
-      <c r="N68" t="n">
+      <c r="P68" t="n">
         <v>-0.03510995645587231</v>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>0.4844556930861691</v>
       </c>
-      <c r="P68" t="n">
+      <c r="R68" t="n">
         <v>0.4208418983710266</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="S68" t="n">
         <v>0.05433037550944975</v>
       </c>
-      <c r="R68" t="n">
+      <c r="T68" t="n">
         <v>-0.2950718017740681</v>
       </c>
-      <c r="S68" t="n">
+      <c r="U68" t="n">
         <v>-0.2467434730755411</v>
       </c>
-      <c r="T68" t="n">
+      <c r="V68" t="n">
         <v>68</v>
       </c>
     </row>
@@ -4694,60 +5106,66 @@
         <v>-0.921948442041488</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C69" t="n">
         <v>-0.04399127192982456</v>
       </c>
       <c r="D69" t="n">
+        <v>-0.01754385964912281</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F69" t="n">
         <v>-1.686032565009425</v>
       </c>
-      <c r="E69" t="n">
+      <c r="G69" t="n">
         <v>0.5146077484254454</v>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>-0.5945502887082988</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>-0.843322283103379</v>
       </c>
-      <c r="H69" t="n">
+      <c r="J69" t="n">
         <v>-0.5172732532261433</v>
       </c>
-      <c r="I69" t="n">
+      <c r="K69" t="n">
         <v>1.160397067971372</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.6106654455003868</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.9307428571344332</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.4460721881797778</v>
       </c>
-      <c r="M69" t="n">
+      <c r="O69" t="n">
         <v>-0.2735544662394593</v>
       </c>
-      <c r="N69" t="n">
+      <c r="P69" t="n">
         <v>-0.4775909215296165</v>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>0.5973841590619213</v>
       </c>
-      <c r="P69" t="n">
+      <c r="R69" t="n">
         <v>-0.5712298616493243</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>0.622486629468319</v>
       </c>
-      <c r="R69" t="n">
+      <c r="T69" t="n">
         <v>-0.09755216564479387</v>
       </c>
-      <c r="S69" t="n">
+      <c r="U69" t="n">
         <v>-0.6076983581397479</v>
       </c>
-      <c r="T69" t="n">
+      <c r="V69" t="n">
         <v>76</v>
       </c>
     </row>
@@ -4756,60 +5174,66 @@
         <v>-0.9075688056812666</v>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.7762834960720796</v>
       </c>
-      <c r="E70" t="n">
+      <c r="G70" t="n">
         <v>-0.2529093339285694</v>
       </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
         <v>-0.5624778233122464</v>
       </c>
-      <c r="G70" t="n">
+      <c r="I70" t="n">
         <v>-0.3032338691603655</v>
       </c>
-      <c r="H70" t="n">
+      <c r="J70" t="n">
         <v>-0.7179027013493842</v>
       </c>
-      <c r="I70" t="n">
+      <c r="K70" t="n">
         <v>-0.3169795983894662</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>-1.326875023864579</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.263987969104987</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>2.043037516747308</v>
       </c>
-      <c r="M70" t="n">
+      <c r="O70" t="n">
         <v>1.315233673078908</v>
       </c>
-      <c r="N70" t="n">
+      <c r="P70" t="n">
         <v>-0.3882562671037114</v>
       </c>
-      <c r="O70" t="n">
+      <c r="Q70" t="n">
         <v>-0.1694134329474598</v>
       </c>
-      <c r="P70" t="n">
+      <c r="R70" t="n">
         <v>-1.732838259390595</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="S70" t="n">
         <v>0.335075749233566</v>
       </c>
-      <c r="R70" t="n">
+      <c r="T70" t="n">
         <v>0.001250149311854736</v>
       </c>
-      <c r="S70" t="n">
+      <c r="U70" t="n">
         <v>-0.4609756399860735</v>
       </c>
-      <c r="T70" t="n">
+      <c r="V70" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4818,60 +5242,66 @@
         <v>-0.6559251693773933</v>
       </c>
       <c r="B71" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C71" t="n">
         <v>-0.08955366071428572</v>
       </c>
       <c r="D71" t="n">
+        <v>-0.03571428571428571</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F71" t="n">
         <v>-0.007164444327236877</v>
       </c>
-      <c r="E71" t="n">
+      <c r="G71" t="n">
         <v>1.087271546769888</v>
       </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
         <v>-0.8023805250867948</v>
       </c>
-      <c r="G71" t="n">
+      <c r="I71" t="n">
         <v>0.3080082072611879</v>
       </c>
-      <c r="H71" t="n">
+      <c r="J71" t="n">
         <v>-0.3189321264225766</v>
       </c>
-      <c r="I71" t="n">
+      <c r="K71" t="n">
         <v>0.834272285125217</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>-0.9061793120292537</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.4846092646214673</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.8303054430142239</v>
       </c>
-      <c r="M71" t="n">
+      <c r="O71" t="n">
         <v>-0.05929659008612747</v>
       </c>
-      <c r="N71" t="n">
+      <c r="P71" t="n">
         <v>-0.5929751735544956</v>
       </c>
-      <c r="O71" t="n">
+      <c r="Q71" t="n">
         <v>-0.7048289559790604</v>
       </c>
-      <c r="P71" t="n">
+      <c r="R71" t="n">
         <v>1.870620249393777</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="S71" t="n">
         <v>0.5481630722355962</v>
       </c>
-      <c r="R71" t="n">
+      <c r="T71" t="n">
         <v>1.297785746362016</v>
       </c>
-      <c r="S71" t="n">
+      <c r="U71" t="n">
         <v>-0.07035643489247147</v>
       </c>
-      <c r="T71" t="n">
+      <c r="V71" t="n">
         <v>79</v>
       </c>
     </row>
@@ -4880,60 +5310,66 @@
         <v>-1.041778745043332</v>
       </c>
       <c r="B72" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
         <v>-1.665283715446338</v>
       </c>
-      <c r="E72" t="n">
+      <c r="G72" t="n">
         <v>-0.2669416022905612</v>
       </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
         <v>0.9926270453737442</v>
       </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
         <v>-0.7459527171949022</v>
       </c>
-      <c r="H72" t="n">
+      <c r="J72" t="n">
         <v>-0.5984331153616637</v>
       </c>
-      <c r="I72" t="n">
+      <c r="K72" t="n">
         <v>-0.5786048253017987</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.3509543432949266</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.5043731058326728</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.2568602059833956</v>
       </c>
-      <c r="M72" t="n">
+      <c r="O72" t="n">
         <v>-1.01719814101349</v>
       </c>
-      <c r="N72" t="n">
+      <c r="P72" t="n">
         <v>0.8375798898950778</v>
       </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
         <v>0.7517598997747162</v>
       </c>
-      <c r="P72" t="n">
+      <c r="R72" t="n">
         <v>-0.1524265423901907</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="S72" t="n">
         <v>0.6973534528154675</v>
       </c>
-      <c r="R72" t="n">
+      <c r="T72" t="n">
         <v>0.05928715083948834</v>
       </c>
-      <c r="S72" t="n">
+      <c r="U72" t="n">
         <v>0.2644971927361658</v>
       </c>
-      <c r="T72" t="n">
+      <c r="V72" t="n">
         <v>82</v>
       </c>
     </row>
@@ -4942,60 +5378,66 @@
         <v>-1.140039593504845</v>
       </c>
       <c r="B73" t="n">
-        <v>27</v>
+        <v>-0.09998109898625049</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
         <v>-0.5434148838973618</v>
       </c>
-      <c r="E73" t="n">
+      <c r="G73" t="n">
         <v>0.02124937777174969</v>
       </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
         <v>-1.032962228406242</v>
       </c>
-      <c r="G73" t="n">
+      <c r="I73" t="n">
         <v>-0.561673416303843</v>
       </c>
-      <c r="H73" t="n">
+      <c r="J73" t="n">
         <v>0.6130608621383916</v>
       </c>
-      <c r="I73" t="n">
+      <c r="K73" t="n">
         <v>1.881678680010607</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>-0.09219617843788631</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.8862668520929666</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.2771619798353087</v>
       </c>
-      <c r="M73" t="n">
+      <c r="O73" t="n">
         <v>-0.1583229342758568</v>
       </c>
-      <c r="N73" t="n">
+      <c r="P73" t="n">
         <v>-0.3409210940958221</v>
       </c>
-      <c r="O73" t="n">
+      <c r="Q73" t="n">
         <v>0.1567162055343604</v>
       </c>
-      <c r="P73" t="n">
+      <c r="R73" t="n">
         <v>-0.8362568233827555</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>0.07150607478629216</v>
       </c>
-      <c r="R73" t="n">
+      <c r="T73" t="n">
         <v>-0.4737556876701194</v>
       </c>
-      <c r="S73" t="n">
+      <c r="U73" t="n">
         <v>-0.2776259164714283</v>
       </c>
-      <c r="T73" t="n">
+      <c r="V73" t="n">
         <v>77</v>
       </c>
     </row>
@@ -5004,60 +5446,66 @@
         <v>-1.022605896563037</v>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>0.5726190214667052</v>
       </c>
       <c r="C74" t="n">
         <v>-0.08955366071428572</v>
       </c>
       <c r="D74" t="n">
+        <v>-0.03571428571428571</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F74" t="n">
         <v>-0.1602766445513951</v>
       </c>
-      <c r="E74" t="n">
+      <c r="G74" t="n">
         <v>-1.305405630430969</v>
       </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
         <v>-0.67940047625491</v>
       </c>
-      <c r="G74" t="n">
+      <c r="I74" t="n">
         <v>0.2376244212527087</v>
       </c>
-      <c r="H74" t="n">
+      <c r="J74" t="n">
         <v>-1.242161832769662</v>
       </c>
-      <c r="I74" t="n">
+      <c r="K74" t="n">
         <v>-0.625829407287581</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>-0.1299279741838974</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.078079171699258</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>1.62679224510393</v>
       </c>
-      <c r="M74" t="n">
+      <c r="O74" t="n">
         <v>-1.627440087870042</v>
       </c>
-      <c r="N74" t="n">
+      <c r="P74" t="n">
         <v>1.461626687665748</v>
       </c>
-      <c r="O74" t="n">
+      <c r="Q74" t="n">
         <v>0.6716782224960055</v>
       </c>
-      <c r="P74" t="n">
+      <c r="R74" t="n">
         <v>-0.1920696166546775</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>-0.2729899783704841</v>
       </c>
-      <c r="R74" t="n">
+      <c r="T74" t="n">
         <v>0.08395749022687879</v>
       </c>
-      <c r="S74" t="n">
+      <c r="U74" t="n">
         <v>0.0886876292152128</v>
       </c>
-      <c r="T74" t="n">
+      <c r="V74" t="n">
         <v>78</v>
       </c>
     </row>
@@ -5066,60 +5514,66 @@
         <v>-0.9555009268820044</v>
       </c>
       <c r="B75" t="n">
-        <v>27</v>
+        <v>-0.09998109898625049</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
         <v>-0.3287716125550841</v>
       </c>
-      <c r="E75" t="n">
+      <c r="G75" t="n">
         <v>-0.8273589481394494</v>
       </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
         <v>-0.6537640540468198</v>
       </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
         <v>-0.1229079303956536</v>
       </c>
-      <c r="H75" t="n">
+      <c r="J75" t="n">
         <v>0.4978121247412247</v>
       </c>
-      <c r="I75" t="n">
+      <c r="K75" t="n">
         <v>-0.4344932662794962</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>-0.9912661124131587</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.4859348988034868</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.4887952101148677</v>
       </c>
-      <c r="M75" t="n">
+      <c r="O75" t="n">
         <v>0.7299545154616879</v>
       </c>
-      <c r="N75" t="n">
+      <c r="P75" t="n">
         <v>-0.6300200915606704</v>
       </c>
-      <c r="O75" t="n">
+      <c r="Q75" t="n">
         <v>0.2994117278305619</v>
       </c>
-      <c r="P75" t="n">
+      <c r="R75" t="n">
         <v>-1.872905353056356</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="S75" t="n">
         <v>-0.03677187160668473</v>
       </c>
-      <c r="R75" t="n">
+      <c r="T75" t="n">
         <v>-0.34287130569338</v>
       </c>
-      <c r="S75" t="n">
+      <c r="U75" t="n">
         <v>-0.2188647931710474</v>
       </c>
-      <c r="T75" t="n">
+      <c r="V75" t="n">
         <v>81</v>
       </c>
     </row>
